--- a/assets/cursos/EP/LOQ4206.xlsx
+++ b/assets/cursos/EP/LOQ4206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -106,25 +106,28 @@
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>1. Introduction to Operational Research 1.1. Concepts of Operational Research; 1.2. Modeling; 1.3. Structure of Mathematical Models; 1.4. Mathematical techniques in Operational Research; 1.2. Phases of a Study in Operational Research 2. Linear Programming 2.1. Definition 2.2. Formulation of Models 2.3. Graphic Resolution; 3. Simplex method 3.1. Development of the Simplex Method; 3.2. Simplex Method Procedure; 4. Introduction to Graphs and Network Optimization 4.1. Basic Concepts in Graph Theory 4.2. Maximum Flow Problems; 4.3. Minimum Path Problems 5. Case Studies in Linear Programming 5.1. Simple Transport Model 5.2. Model of Designation. 6. Introduction to Queuing Theory 6.1. Queuing Theory Concepts 6.2. Markovian Models</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de laboratório, aulas de exercícios.</t>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>MF = (0,45*P1 + 0,45*P2 + 0,10*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -674,72 +677,72 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
